--- a/SchedulingData/dynamic16/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_4.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.7</v>
+        <v>35.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.62</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.3</v>
+        <v>40.8</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.04000000000001</v>
+        <v>68.08</v>
       </c>
       <c r="E4" t="n">
-        <v>27.536</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>59.12</v>
+        <v>34.78</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>62.4</v>
+        <v>62.26</v>
       </c>
       <c r="E6" t="n">
-        <v>26.92</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="D7" t="n">
-        <v>51.64</v>
+        <v>95.2</v>
       </c>
       <c r="E7" t="n">
-        <v>26.516</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51.64</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>121.84</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>22.136</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59.12</v>
+        <v>40.8</v>
       </c>
       <c r="D9" t="n">
-        <v>129</v>
+        <v>91.86</v>
       </c>
       <c r="E9" t="n">
-        <v>21.42</v>
+        <v>22.644</v>
       </c>
     </row>
     <row r="10">
@@ -618,397 +618,397 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>129</v>
+        <v>34.78</v>
       </c>
       <c r="D10" t="n">
-        <v>204</v>
+        <v>81.5</v>
       </c>
       <c r="E10" t="n">
-        <v>17.04</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71.04000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="D11" t="n">
-        <v>146.7</v>
+        <v>176.9</v>
       </c>
       <c r="E11" t="n">
-        <v>23.56</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="D12" t="n">
-        <v>83.81999999999999</v>
+        <v>269.72</v>
       </c>
       <c r="E12" t="n">
-        <v>25.788</v>
+        <v>15.488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>204</v>
+        <v>91.86</v>
       </c>
       <c r="D13" t="n">
-        <v>243.7</v>
+        <v>156.74</v>
       </c>
       <c r="E13" t="n">
-        <v>14.2</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.84</v>
+        <v>156.74</v>
       </c>
       <c r="D14" t="n">
-        <v>189.34</v>
+        <v>219.84</v>
       </c>
       <c r="E14" t="n">
-        <v>18.496</v>
+        <v>14.076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62.4</v>
+        <v>68.08</v>
       </c>
       <c r="D15" t="n">
-        <v>126.1</v>
+        <v>120.96</v>
       </c>
       <c r="E15" t="n">
-        <v>23.68</v>
+        <v>22.704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>189.34</v>
+        <v>120.96</v>
       </c>
       <c r="D16" t="n">
-        <v>237.12</v>
+        <v>180</v>
       </c>
       <c r="E16" t="n">
-        <v>14.848</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>85.3</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
-        <v>149.6</v>
+        <v>249.68</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>15.552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>83.81999999999999</v>
+        <v>62.26</v>
       </c>
       <c r="D18" t="n">
-        <v>133.3</v>
+        <v>107.88</v>
       </c>
       <c r="E18" t="n">
-        <v>22.98</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>149.6</v>
+        <v>269.72</v>
       </c>
       <c r="D19" t="n">
-        <v>211.26</v>
+        <v>341.82</v>
       </c>
       <c r="E19" t="n">
-        <v>16.944</v>
+        <v>12.368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>133.3</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>182.56</v>
+        <v>103.22</v>
       </c>
       <c r="E20" t="n">
-        <v>19.184</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>211.26</v>
+        <v>81.5</v>
       </c>
       <c r="D21" t="n">
-        <v>257.84</v>
+        <v>131.3</v>
       </c>
       <c r="E21" t="n">
-        <v>13.416</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>237.12</v>
+        <v>131.3</v>
       </c>
       <c r="D22" t="n">
-        <v>285.12</v>
+        <v>173.02</v>
       </c>
       <c r="E22" t="n">
-        <v>10.688</v>
+        <v>18.288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>126.1</v>
+        <v>103.22</v>
       </c>
       <c r="D23" t="n">
-        <v>189.42</v>
+        <v>156.12</v>
       </c>
       <c r="E23" t="n">
-        <v>19.468</v>
+        <v>18.328</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>189.42</v>
+        <v>156.12</v>
       </c>
       <c r="D24" t="n">
-        <v>227.02</v>
+        <v>207.42</v>
       </c>
       <c r="E24" t="n">
-        <v>16.348</v>
+        <v>15.808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>146.7</v>
+        <v>173.02</v>
       </c>
       <c r="D25" t="n">
-        <v>211.58</v>
+        <v>222.28</v>
       </c>
       <c r="E25" t="n">
-        <v>19.192</v>
+        <v>14.492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>285.12</v>
+        <v>219.84</v>
       </c>
       <c r="D26" t="n">
-        <v>328.36</v>
+        <v>250.88</v>
       </c>
       <c r="E26" t="n">
-        <v>7.984</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>328.36</v>
+        <v>250.88</v>
       </c>
       <c r="D27" t="n">
-        <v>404.58</v>
+        <v>300.14</v>
       </c>
       <c r="E27" t="n">
-        <v>3.952</v>
+        <v>7.816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>182.56</v>
+        <v>207.42</v>
       </c>
       <c r="D28" t="n">
-        <v>246.72</v>
+        <v>279.12</v>
       </c>
       <c r="E28" t="n">
-        <v>16.368</v>
+        <v>12.728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>211.58</v>
+        <v>341.82</v>
       </c>
       <c r="D29" t="n">
-        <v>243.5</v>
+        <v>390.34</v>
       </c>
       <c r="E29" t="n">
-        <v>16.64</v>
+        <v>8.156000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>243.7</v>
+        <v>279.12</v>
       </c>
       <c r="D30" t="n">
-        <v>318.1</v>
+        <v>347.32</v>
       </c>
       <c r="E30" t="n">
-        <v>10.84</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>243.5</v>
+        <v>249.68</v>
       </c>
       <c r="D31" t="n">
-        <v>296.8</v>
+        <v>304.88</v>
       </c>
       <c r="E31" t="n">
-        <v>12.44</v>
+        <v>11.172</v>
       </c>
     </row>
     <row r="32">
@@ -1036,79 +1036,79 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>318.1</v>
+        <v>222.28</v>
       </c>
       <c r="D32" t="n">
-        <v>405</v>
+        <v>261.66</v>
       </c>
       <c r="E32" t="n">
-        <v>7.72</v>
+        <v>11.684</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>257.84</v>
+        <v>304.88</v>
       </c>
       <c r="D33" t="n">
-        <v>299.34</v>
+        <v>386.18</v>
       </c>
       <c r="E33" t="n">
-        <v>10.896</v>
+        <v>8.132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>246.72</v>
+        <v>390.34</v>
       </c>
       <c r="D34" t="n">
-        <v>294.02</v>
+        <v>465.34</v>
       </c>
       <c r="E34" t="n">
-        <v>12.768</v>
+        <v>5.276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>227.02</v>
+        <v>107.88</v>
       </c>
       <c r="D35" t="n">
-        <v>289.8</v>
+        <v>195.52</v>
       </c>
       <c r="E35" t="n">
-        <v>12.7</v>
+        <v>18.368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,32 +1116,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>299.34</v>
+        <v>300.14</v>
       </c>
       <c r="D36" t="n">
-        <v>352.8</v>
+        <v>363.2</v>
       </c>
       <c r="E36" t="n">
-        <v>7.68</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>289.8</v>
+        <v>195.52</v>
       </c>
       <c r="D37" t="n">
-        <v>348.14</v>
+        <v>271.42</v>
       </c>
       <c r="E37" t="n">
-        <v>7.996</v>
+        <v>13.868</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>296.8</v>
+        <v>386.18</v>
       </c>
       <c r="D38" t="n">
-        <v>368.46</v>
+        <v>452.36</v>
       </c>
       <c r="E38" t="n">
-        <v>7.904</v>
+        <v>4.604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>404.58</v>
+        <v>261.66</v>
       </c>
       <c r="D39" t="n">
-        <v>488.32</v>
+        <v>306.9</v>
       </c>
       <c r="E39" t="n">
-        <v>1.168</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>488.32</v>
+        <v>347.32</v>
       </c>
       <c r="D40" t="n">
-        <v>587.38</v>
+        <v>408.36</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="41">
@@ -1207,79 +1207,79 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>348.14</v>
+        <v>465.34</v>
       </c>
       <c r="D41" t="n">
-        <v>402.3</v>
+        <v>510.2</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>368.46</v>
+        <v>408.36</v>
       </c>
       <c r="D42" t="n">
-        <v>413.32</v>
+        <v>479.18</v>
       </c>
       <c r="E42" t="n">
-        <v>5.048</v>
+        <v>2.052</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>352.8</v>
+        <v>363.2</v>
       </c>
       <c r="D43" t="n">
-        <v>411.2</v>
+        <v>412.4</v>
       </c>
       <c r="E43" t="n">
-        <v>3.96</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>402.3</v>
+        <v>412.4</v>
       </c>
       <c r="D44" t="n">
-        <v>491</v>
+        <v>476.8</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>491</v>
+        <v>479.18</v>
       </c>
       <c r="D45" t="n">
-        <v>561.2</v>
+        <v>576.38</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>411.2</v>
+        <v>576.38</v>
       </c>
       <c r="D46" t="n">
-        <v>461.7</v>
+        <v>639.8200000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>1.52</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="47">
@@ -1321,22 +1321,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>461.7</v>
+        <v>639.8200000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>559.96</v>
+        <v>693.3200000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>24.056</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1344,51 +1344,51 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>413.32</v>
+        <v>476.8</v>
       </c>
       <c r="D48" t="n">
-        <v>484.04</v>
+        <v>523.72</v>
       </c>
       <c r="E48" t="n">
-        <v>2.056</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>561.2</v>
+        <v>271.42</v>
       </c>
       <c r="D49" t="n">
-        <v>642.9</v>
+        <v>344.46</v>
       </c>
       <c r="E49" t="n">
-        <v>26.96</v>
+        <v>9.164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>294.02</v>
+        <v>693.3200000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>349.44</v>
+        <v>743.72</v>
       </c>
       <c r="E50" t="n">
-        <v>9.336</v>
+        <v>21.616</v>
       </c>
     </row>
     <row r="51">
@@ -1397,112 +1397,112 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>349.44</v>
+        <v>523.72</v>
       </c>
       <c r="D51" t="n">
-        <v>410.46</v>
+        <v>576.98</v>
       </c>
       <c r="E51" t="n">
-        <v>6.344</v>
+        <v>23.792</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>405</v>
+        <v>344.46</v>
       </c>
       <c r="D52" t="n">
-        <v>476.6</v>
+        <v>391.86</v>
       </c>
       <c r="E52" t="n">
-        <v>4.64</v>
+        <v>6.044</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>559.96</v>
+        <v>391.86</v>
       </c>
       <c r="D53" t="n">
-        <v>608.4400000000001</v>
+        <v>470.96</v>
       </c>
       <c r="E53" t="n">
-        <v>26.832</v>
+        <v>2.744</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>587.38</v>
+        <v>510.2</v>
       </c>
       <c r="D54" t="n">
-        <v>633.1799999999999</v>
+        <v>601.76</v>
       </c>
       <c r="E54" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>633.1799999999999</v>
+        <v>601.76</v>
       </c>
       <c r="D55" t="n">
-        <v>687.36</v>
+        <v>676.3200000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>24.332</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>410.46</v>
+        <v>452.36</v>
       </c>
       <c r="D56" t="n">
-        <v>483.62</v>
+        <v>495.44</v>
       </c>
       <c r="E56" t="n">
-        <v>3.128</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="57">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>484.04</v>
+        <v>495.44</v>
       </c>
       <c r="D57" t="n">
-        <v>556.9299999999999</v>
+        <v>569.37</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>556.9299999999999</v>
+        <v>569.37</v>
       </c>
       <c r="D58" t="n">
-        <v>596.9299999999999</v>
+        <v>654.27</v>
       </c>
       <c r="E58" t="n">
-        <v>26.7</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="59">
@@ -1549,169 +1549,169 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>483.62</v>
+        <v>576.98</v>
       </c>
       <c r="D59" t="n">
-        <v>569.0599999999999</v>
+        <v>619.08</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>20.712</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>569.0599999999999</v>
+        <v>306.9</v>
       </c>
       <c r="D60" t="n">
-        <v>635.96</v>
+        <v>376.7</v>
       </c>
       <c r="E60" t="n">
-        <v>25.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>608.4400000000001</v>
+        <v>470.96</v>
       </c>
       <c r="D61" t="n">
-        <v>661.9400000000001</v>
+        <v>542.47</v>
       </c>
       <c r="E61" t="n">
-        <v>23.592</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>476.6</v>
+        <v>542.47</v>
       </c>
       <c r="D62" t="n">
-        <v>536.9400000000001</v>
+        <v>580.67</v>
       </c>
       <c r="E62" t="n">
-        <v>1.736</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>536.9400000000001</v>
+        <v>580.67</v>
       </c>
       <c r="D63" t="n">
-        <v>624.97</v>
+        <v>676.9299999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>22.344</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>661.9400000000001</v>
+        <v>376.7</v>
       </c>
       <c r="D64" t="n">
-        <v>724.6799999999999</v>
+        <v>439.1</v>
       </c>
       <c r="E64" t="n">
-        <v>19.448</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>642.9</v>
+        <v>439.1</v>
       </c>
       <c r="D65" t="n">
-        <v>725.1</v>
+        <v>532.08</v>
       </c>
       <c r="E65" t="n">
-        <v>23.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>624.97</v>
+        <v>676.3200000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>703.37</v>
+        <v>739.72</v>
       </c>
       <c r="E66" t="n">
-        <v>25.8</v>
+        <v>23.464</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>635.96</v>
+        <v>654.27</v>
       </c>
       <c r="D67" t="n">
-        <v>700.5599999999999</v>
+        <v>707.87</v>
       </c>
       <c r="E67" t="n">
-        <v>22.62</v>
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
